--- a/AE Zaid/Bagerhat/2022-23/Protective Work Design/Design_volume_python_analysis.xlsx
+++ b/AE Zaid/Bagerhat/2022-23/Protective Work Design/Design_volume_python_analysis.xlsx
@@ -12,10 +12,11 @@
     <sheet name="dumping_volume_provided" sheetId="3" r:id="rId3"/>
     <sheet name="Rehab_Estimate" sheetId="4" r:id="rId4"/>
     <sheet name="New_Estimate" sheetId="7" r:id="rId5"/>
-    <sheet name="Block_cost_comparision" sheetId="5" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId7"/>
-    <sheet name="Sheet3" sheetId="11" r:id="rId8"/>
-    <sheet name="Sheet2" sheetId="10" r:id="rId9"/>
+    <sheet name="Block_cost_comparision (2)" sheetId="12" r:id="rId6"/>
+    <sheet name="Block_cost_comparision" sheetId="5" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="11" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="147">
   <si>
     <t>Name</t>
   </si>
@@ -620,7 +621,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -723,6 +724,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -732,6 +739,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1025,6 +1033,198 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:O9"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="6" width="15.77734375" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" customWidth="1"/>
+    <col min="9" max="9" width="25.88671875" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="C2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="2">
+        <v>242441</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3802.03</v>
+      </c>
+      <c r="E3" s="2">
+        <f>C3*D3</f>
+        <v>921767955.23000002</v>
+      </c>
+      <c r="F3" s="2">
+        <f>C3/C5</f>
+        <v>0.55841266258369593</v>
+      </c>
+      <c r="G3" s="18">
+        <v>270553</v>
+      </c>
+      <c r="H3" s="2">
+        <v>4263</v>
+      </c>
+      <c r="I3" s="2">
+        <f>G3*H3</f>
+        <v>1153367439</v>
+      </c>
+      <c r="J3" s="2">
+        <f>G3/G5</f>
+        <v>0.53745880455230799</v>
+      </c>
+      <c r="K3" s="18">
+        <v>276867</v>
+      </c>
+      <c r="L3" s="2">
+        <v>4263</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="2">
+        <v>191720</v>
+      </c>
+      <c r="D4" s="2">
+        <v>18285.09</v>
+      </c>
+      <c r="E4" s="2">
+        <f>C4*D4</f>
+        <v>3505617454.8000002</v>
+      </c>
+      <c r="F4" s="2">
+        <f>C4/C5</f>
+        <v>0.44158733741630407</v>
+      </c>
+      <c r="G4" s="18">
+        <v>232840</v>
+      </c>
+      <c r="H4" s="2">
+        <v>17796</v>
+      </c>
+      <c r="I4" s="2">
+        <f>G4*H4</f>
+        <v>4143620640</v>
+      </c>
+      <c r="J4" s="2">
+        <f>G4/G5</f>
+        <v>0.46254119544769196</v>
+      </c>
+      <c r="K4" s="18">
+        <v>226526</v>
+      </c>
+      <c r="L4" s="2">
+        <v>14878</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="2"/>
+      <c r="C5" s="18">
+        <f t="shared" ref="C5" si="0">C3+C4</f>
+        <v>434161</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18">
+        <f>E3+E4</f>
+        <v>4427385410.0300007</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18">
+        <f>SUM(G3:G4)</f>
+        <v>503393</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="18">
+        <f>SUM(I3:I4)</f>
+        <v>5296988079</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18">
+        <f>SUMPRODUCT(K3:K4,L3:L4)</f>
+        <v>4550537849</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="G6" s="1"/>
+      <c r="I6" s="16">
+        <f>I5-E5</f>
+        <v>869602668.96999931</v>
+      </c>
+      <c r="L6" s="18">
+        <f>L5-E5</f>
+        <v>123152438.96999931</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="34"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K2:O2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
@@ -2774,7 +2974,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3696,7 +3896,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3875,83 +4075,86 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="28">
         <v>411975</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="19">
         <v>499.32</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="2">
+      <c r="G7" s="28"/>
+      <c r="H7" s="19">
         <v>515.97</v>
       </c>
-      <c r="J7" s="2">
+      <c r="I7" s="49"/>
+      <c r="J7" s="19">
         <v>515.97</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="28">
         <v>3954.96</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="19">
         <v>1395.03</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="2">
+      <c r="G8" s="28"/>
+      <c r="H8" s="19">
         <v>1586.93</v>
       </c>
-      <c r="J8" s="2">
+      <c r="I8" s="49"/>
+      <c r="J8" s="19">
         <v>1586.93</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="28">
         <v>9228.24</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="19">
         <v>2185.1</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="2">
+      <c r="G9" s="28"/>
+      <c r="H9" s="19">
         <v>2486.73</v>
       </c>
-      <c r="J9" s="2">
+      <c r="I9" s="49"/>
+      <c r="J9" s="19">
         <v>2486.73</v>
       </c>
     </row>
@@ -4078,137 +4281,137 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="28">
         <v>6624.52</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="19">
         <v>1316.45</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="2">
+      <c r="G14" s="28"/>
+      <c r="H14" s="19">
         <v>1344.22</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="19">
         <v>1344.22</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="28">
         <v>3312.26</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="19">
         <v>4564.59</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="2">
+      <c r="G15" s="28"/>
+      <c r="H15" s="19">
         <v>4900.41</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="19">
         <v>4900.41</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="28">
         <v>3312.2669999999998</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="19">
         <v>5028.49</v>
       </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="2">
+      <c r="G16" s="28"/>
+      <c r="H16" s="19">
         <v>5401.5</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="19">
         <v>5401.5</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="28">
         <v>99519.773000000001</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="19">
         <v>250.13</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="2">
+      <c r="G17" s="28"/>
+      <c r="H17" s="19">
         <v>286.16000000000003</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="19">
         <v>286.16000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="28">
         <v>28267.200000000001</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="19">
         <v>218.36</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="2">
+      <c r="G18" s="28"/>
+      <c r="H18" s="19">
         <v>248.87</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="19">
         <v>248.87</v>
       </c>
     </row>
@@ -4648,6 +4851,233 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C6:Q31"/>
+  <sheetViews>
+    <sheetView topLeftCell="H2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.77734375" customWidth="1"/>
+    <col min="7" max="7" width="35.77734375" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" customWidth="1"/>
+    <col min="12" max="12" width="13.21875" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" customWidth="1"/>
+    <col min="17" max="17" width="19.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="6:17">
+      <c r="F6" s="5"/>
+      <c r="G6" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="J6" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="K6" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="6:17">
+      <c r="F7" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="43">
+        <v>1442.18</v>
+      </c>
+      <c r="I7" s="43">
+        <v>1473.01</v>
+      </c>
+      <c r="J7" s="43">
+        <v>1439.56</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1401.84</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1366.89</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="43">
+        <f>(45/100)^3</f>
+        <v>9.1125000000000012E-2</v>
+      </c>
+      <c r="O7" s="43">
+        <f>I7/N7</f>
+        <v>16164.718792866939</v>
+      </c>
+      <c r="P7">
+        <f>H7/N7</f>
+        <v>15826.392318244169</v>
+      </c>
+      <c r="Q7" s="44">
+        <f>L7/N7</f>
+        <v>15000.164609053498</v>
+      </c>
+    </row>
+    <row r="8" spans="6:17">
+      <c r="F8" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="43">
+        <v>650.79</v>
+      </c>
+      <c r="I8" s="43">
+        <v>691.87</v>
+      </c>
+      <c r="J8" s="43">
+        <v>676.16</v>
+      </c>
+      <c r="K8" s="4">
+        <v>658.44</v>
+      </c>
+      <c r="L8" s="4">
+        <v>642.03</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="43">
+        <f>(35/100)^3</f>
+        <v>4.287499999999999E-2</v>
+      </c>
+      <c r="O8" s="43">
+        <f t="shared" ref="O8:O10" si="0">I8/N8</f>
+        <v>16136.909620991257</v>
+      </c>
+      <c r="Q8" s="44">
+        <f>L8/N8</f>
+        <v>14974.460641399421</v>
+      </c>
+    </row>
+    <row r="9" spans="6:17">
+      <c r="F9" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="43">
+        <v>499.32</v>
+      </c>
+      <c r="I9" s="43">
+        <v>515.97</v>
+      </c>
+      <c r="J9" s="43">
+        <v>504.25</v>
+      </c>
+      <c r="K9" s="4">
+        <v>491.04</v>
+      </c>
+      <c r="L9" s="4">
+        <v>478.4</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="6:17">
+      <c r="F10" s="5"/>
+      <c r="G10" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="43">
+        <v>759.98</v>
+      </c>
+      <c r="N10" s="43">
+        <f>((50/100)^2)*(38/100)</f>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="O10" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="44">
+        <f>M10/N10</f>
+        <v>7999.7894736842109</v>
+      </c>
+    </row>
+    <row r="12" spans="6:17">
+      <c r="K12">
+        <f>I7/N7</f>
+        <v>16164.718792866939</v>
+      </c>
+    </row>
+    <row r="14" spans="6:17" s="34" customFormat="1"/>
+    <row r="15" spans="6:17" s="34" customFormat="1"/>
+    <row r="16" spans="6:17" s="34" customFormat="1"/>
+    <row r="17" spans="3:6" s="34" customFormat="1"/>
+    <row r="18" spans="3:6" s="34" customFormat="1"/>
+    <row r="19" spans="3:6" s="34" customFormat="1"/>
+    <row r="20" spans="3:6" s="34" customFormat="1"/>
+    <row r="21" spans="3:6" s="34" customFormat="1"/>
+    <row r="22" spans="3:6" s="34" customFormat="1"/>
+    <row r="23" spans="3:6" s="34" customFormat="1"/>
+    <row r="24" spans="3:6" s="34" customFormat="1"/>
+    <row r="25" spans="3:6" s="34" customFormat="1">
+      <c r="C25" s="35"/>
+    </row>
+    <row r="26" spans="3:6" s="34" customFormat="1">
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+    </row>
+    <row r="27" spans="3:6" s="34" customFormat="1"/>
+    <row r="28" spans="3:6" s="34" customFormat="1"/>
+    <row r="29" spans="3:6" s="34" customFormat="1"/>
+    <row r="30" spans="3:6" s="34" customFormat="1"/>
+    <row r="31" spans="3:6" s="34" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:Q31"/>
   <sheetViews>
@@ -4874,7 +5304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K11"/>
   <sheetViews>
@@ -4898,21 +5328,21 @@
   <sheetData>
     <row r="3" spans="2:11">
       <c r="B3" s="5"/>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43" t="s">
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="44" t="s">
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
     </row>
     <row r="4" spans="2:11">
       <c r="C4" s="5" t="s">
@@ -5058,7 +5488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -5245,196 +5675,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O9"/>
-  <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="6" width="15.77734375" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" customWidth="1"/>
-    <col min="9" max="9" width="25.88671875" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" customWidth="1"/>
-    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:15">
-      <c r="C2" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="2">
-        <v>242441</v>
-      </c>
-      <c r="D3" s="2">
-        <v>3802.03</v>
-      </c>
-      <c r="E3" s="2">
-        <f>C3*D3</f>
-        <v>921767955.23000002</v>
-      </c>
-      <c r="F3" s="2">
-        <f>C3/C5</f>
-        <v>0.55841266258369593</v>
-      </c>
-      <c r="G3" s="18">
-        <v>270553</v>
-      </c>
-      <c r="H3" s="2">
-        <v>4263</v>
-      </c>
-      <c r="I3" s="2">
-        <f>G3*H3</f>
-        <v>1153367439</v>
-      </c>
-      <c r="J3" s="2">
-        <f>G3/G5</f>
-        <v>0.53745880455230799</v>
-      </c>
-      <c r="K3" s="18">
-        <v>276867</v>
-      </c>
-      <c r="L3" s="2">
-        <v>4263</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="2">
-        <v>191720</v>
-      </c>
-      <c r="D4" s="2">
-        <v>18285.09</v>
-      </c>
-      <c r="E4" s="2">
-        <f>C4*D4</f>
-        <v>3505617454.8000002</v>
-      </c>
-      <c r="F4" s="2">
-        <f>C4/C5</f>
-        <v>0.44158733741630407</v>
-      </c>
-      <c r="G4" s="18">
-        <v>232840</v>
-      </c>
-      <c r="H4" s="2">
-        <v>17796</v>
-      </c>
-      <c r="I4" s="2">
-        <f>G4*H4</f>
-        <v>4143620640</v>
-      </c>
-      <c r="J4" s="2">
-        <f>G4/G5</f>
-        <v>0.46254119544769196</v>
-      </c>
-      <c r="K4" s="18">
-        <v>226526</v>
-      </c>
-      <c r="L4" s="2">
-        <v>14878</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="2"/>
-      <c r="C5" s="18">
-        <f t="shared" ref="C5" si="0">C3+C4</f>
-        <v>434161</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18">
-        <f>E3+E4</f>
-        <v>4427385410.0300007</v>
-      </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18">
-        <f>SUM(G3:G4)</f>
-        <v>503393</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="18">
-        <f>SUM(I3:I4)</f>
-        <v>5296988079</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18">
-        <f>SUMPRODUCT(K3:K4,L3:L4)</f>
-        <v>4550537849</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="G6" s="1"/>
-      <c r="I6" s="16">
-        <f>I5-E5</f>
-        <v>869602668.96999931</v>
-      </c>
-      <c r="L6" s="18">
-        <f>L5-E5</f>
-        <v>123152438.96999931</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="34"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="K2:O2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>